--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/24.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/24.xlsx
@@ -479,13 +479,13 @@
         <v>-14.93835988483381</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.41275630216045</v>
+        <v>-10.44784367377628</v>
       </c>
       <c r="F2" t="n">
-        <v>2.647915535900005</v>
+        <v>2.612566318227345</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.40733891325053</v>
+        <v>-15.3611754534306</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-14.78520551522818</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.91157304043022</v>
+        <v>-10.94308621337025</v>
       </c>
       <c r="F3" t="n">
-        <v>2.533855393542888</v>
+        <v>2.498427622053177</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.01082542938602</v>
+        <v>-14.97199365915746</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-14.52245395492839</v>
       </c>
       <c r="E4" t="n">
-        <v>-11.23528022819189</v>
+        <v>-11.26197543368617</v>
       </c>
       <c r="F4" t="n">
-        <v>2.679520354959932</v>
+        <v>2.646344459558998</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.5020454486537</v>
+        <v>-14.46655221564978</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-14.16960940593834</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.79419063650518</v>
+        <v>-11.81742947404924</v>
       </c>
       <c r="F5" t="n">
-        <v>2.733486827273527</v>
+        <v>2.696540348654176</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.9039105010266</v>
+        <v>-13.8767701572357</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-13.75095059165263</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.50960643298846</v>
+        <v>-12.5358826847918</v>
       </c>
       <c r="F6" t="n">
-        <v>2.762289893525324</v>
+        <v>2.729978090111944</v>
       </c>
       <c r="G6" t="n">
-        <v>-13.42643421638885</v>
+        <v>-13.39917604187238</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-13.30501763935024</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.84707363103679</v>
+        <v>-12.87486858996977</v>
       </c>
       <c r="F7" t="n">
-        <v>2.969436309087114</v>
+        <v>2.942570903655892</v>
       </c>
       <c r="G7" t="n">
-        <v>-12.7541706500719</v>
+        <v>-12.73133767391593</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-12.85864455809033</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.64901645700104</v>
+        <v>-13.67520106268449</v>
       </c>
       <c r="F8" t="n">
-        <v>3.093210940152792</v>
+        <v>3.066633565384088</v>
       </c>
       <c r="G8" t="n">
-        <v>-12.45035067032681</v>
+        <v>-12.42957318571699</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-12.44812681771604</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.28073316141716</v>
+        <v>-14.30538596766813</v>
       </c>
       <c r="F9" t="n">
-        <v>3.262127831416742</v>
+        <v>3.235759933493506</v>
       </c>
       <c r="G9" t="n">
-        <v>-11.83463275998327</v>
+        <v>-11.81803171997996</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-12.0903609784975</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.24741643403885</v>
+        <v>-15.27618022338212</v>
       </c>
       <c r="F10" t="n">
-        <v>3.44824800861472</v>
+        <v>3.425048447979181</v>
       </c>
       <c r="G10" t="n">
-        <v>-11.48793548843152</v>
+        <v>-11.47795915366613</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-11.80856744639133</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.12262378670539</v>
+        <v>-16.15189817585949</v>
       </c>
       <c r="F11" t="n">
-        <v>3.634813324109316</v>
+        <v>3.612451670855648</v>
       </c>
       <c r="G11" t="n">
-        <v>-11.04991940455874</v>
+        <v>-11.03600228663798</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-11.61209684632159</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.93708285418633</v>
+        <v>-16.96447195173122</v>
       </c>
       <c r="F12" t="n">
-        <v>3.68270496790435</v>
+        <v>3.661678729540538</v>
       </c>
       <c r="G12" t="n">
-        <v>-10.80200355794781</v>
+        <v>-10.78647608677752</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-11.50277230149234</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.57072412712019</v>
+        <v>-17.59360947248753</v>
       </c>
       <c r="F13" t="n">
-        <v>3.541203358790975</v>
+        <v>3.5209102893863</v>
       </c>
       <c r="G13" t="n">
-        <v>-10.24990114711222</v>
+        <v>-10.24391796471355</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-11.48173213777119</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.55609011589702</v>
+        <v>-18.56933952637284</v>
       </c>
       <c r="F14" t="n">
-        <v>3.794251388115856</v>
+        <v>3.77592216413744</v>
       </c>
       <c r="G14" t="n">
-        <v>-9.669872854315232</v>
+        <v>-9.665840425039981</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-11.52955618483327</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.3976109733518</v>
+        <v>-19.40811100023087</v>
       </c>
       <c r="F15" t="n">
-        <v>3.834156727177437</v>
+        <v>3.816953441243409</v>
       </c>
       <c r="G15" t="n">
-        <v>-9.203433380973058</v>
+        <v>-9.20306679649349</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-11.62940366394346</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.36297192338647</v>
+        <v>-20.37059164364036</v>
       </c>
       <c r="F16" t="n">
-        <v>4.044157264758724</v>
+        <v>4.024990133398436</v>
       </c>
       <c r="G16" t="n">
-        <v>-8.683066712225813</v>
+        <v>-8.683943896516208</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-11.74653034746221</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.31102484906438</v>
+        <v>-21.3152667551851</v>
       </c>
       <c r="F17" t="n">
-        <v>4.250439588332959</v>
+        <v>4.230486918802169</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.320894338715146</v>
+        <v>-8.326131259851836</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-11.85379567045167</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.07519638133025</v>
+        <v>-22.07760536505313</v>
       </c>
       <c r="F18" t="n">
-        <v>4.488562392418273</v>
+        <v>4.469892768565972</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.841833885433546</v>
+        <v>-7.851469820325057</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-11.92108112055771</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.82029242835572</v>
+        <v>-22.81352370778655</v>
       </c>
       <c r="F19" t="n">
-        <v>4.690576625266107</v>
+        <v>4.675441923181071</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.279650401409829</v>
+        <v>-7.286576229613102</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-11.92375391581217</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.51778486224868</v>
+        <v>-23.51215517202674</v>
       </c>
       <c r="F20" t="n">
-        <v>4.812151749454375</v>
+        <v>4.797488370271641</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.564823758554428</v>
+        <v>-6.581123675592377</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-11.85336573703695</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.19561265727336</v>
+        <v>-24.18663133752394</v>
       </c>
       <c r="F21" t="n">
-        <v>4.872847665428616</v>
+        <v>4.859310224290272</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.437383282693066</v>
+        <v>-6.454285445661735</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-11.70207663535064</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.92766877066848</v>
+        <v>-24.9148121292779</v>
       </c>
       <c r="F22" t="n">
-        <v>5.198505606313711</v>
+        <v>5.183318535017309</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.294834289352353</v>
+        <v>-6.316724619703718</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-11.48146277899193</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.43009898452256</v>
+        <v>-25.41611640508759</v>
       </c>
       <c r="F23" t="n">
-        <v>5.193897115713423</v>
+        <v>5.18659161072774</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.001213213520962</v>
+        <v>-6.019712637436321</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-11.20118967409147</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.87354837407466</v>
+        <v>-25.85902901022319</v>
       </c>
       <c r="F24" t="n">
-        <v>5.146738640877526</v>
+        <v>5.135295968193858</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.715761734662808</v>
+        <v>-5.742574770882664</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-10.88195676817775</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.19728174644202</v>
+        <v>-26.18926925710288</v>
       </c>
       <c r="F25" t="n">
-        <v>5.261270106136946</v>
+        <v>5.250848633074932</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.493441340107458</v>
+        <v>-5.517701377273177</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-10.5414200351906</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.49941281912053</v>
+        <v>-26.48893897684715</v>
       </c>
       <c r="F26" t="n">
-        <v>5.28056816052565</v>
+        <v>5.267318750049824</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.2731895294011</v>
+        <v>-5.293325491171675</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.19330234601635</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.28214605346209</v>
+        <v>-26.2766603785714</v>
       </c>
       <c r="F27" t="n">
-        <v>5.392271688371257</v>
+        <v>5.377398832343056</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.874070677271082</v>
+        <v>-4.894664869641116</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-9.855734899832415</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.41736335721144</v>
+        <v>-26.4087878988501</v>
       </c>
       <c r="F28" t="n">
-        <v>5.175829737791841</v>
+        <v>5.163208757852417</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.709120753768175</v>
+        <v>-4.73305348336285</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-9.534095469054554</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.56385313370751</v>
+        <v>-26.55680947477866</v>
       </c>
       <c r="F29" t="n">
-        <v>5.2072250800063</v>
+        <v>5.192666439246301</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.682779040450622</v>
+        <v>-4.70521924752134</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-9.241187465346144</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.57769169781121</v>
+        <v>-26.57267734582283</v>
       </c>
       <c r="F30" t="n">
-        <v>5.190021794072273</v>
+        <v>5.173865892365582</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.698777834523211</v>
+        <v>-4.721584626073498</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-8.979241529696806</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.22660850480749</v>
+        <v>-26.22079552234576</v>
       </c>
       <c r="F31" t="n">
-        <v>5.049646123003286</v>
+        <v>5.03071465309415</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.896956022638419</v>
+        <v>-4.916319538541331</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-8.754947907783576</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.89384144347934</v>
+        <v>-25.88887946070232</v>
       </c>
       <c r="F32" t="n">
-        <v>5.056166089818465</v>
+        <v>5.04118849536753</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.989544788335105</v>
+        <v>-5.01127801105237</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-8.571381179162179</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.69897560798308</v>
+        <v>-25.69525739397603</v>
       </c>
       <c r="F33" t="n">
-        <v>4.951532405507391</v>
+        <v>4.934983734715448</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.029149004431327</v>
+        <v>-5.048617258756973</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-8.428770148868434</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.20701923640238</v>
+        <v>-25.20481972952497</v>
       </c>
       <c r="F34" t="n">
-        <v>5.001990140659403</v>
+        <v>4.985912792769763</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.241244310467289</v>
+        <v>-5.262912071670345</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-8.333068241126186</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.89713752044157</v>
+        <v>-24.8966138283279</v>
       </c>
       <c r="F35" t="n">
-        <v>4.841295215580057</v>
+        <v>4.826841313242792</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.344778241339658</v>
+        <v>-5.363146742226601</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-8.279856799192181</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.40065121207763</v>
+        <v>-24.39384321459994</v>
       </c>
       <c r="F36" t="n">
-        <v>4.95745012639185</v>
+        <v>4.940011179006672</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.395249068794513</v>
+        <v>-5.412151231763181</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-8.27184618876621</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.81897328912259</v>
+        <v>-23.81783425877536</v>
       </c>
       <c r="F37" t="n">
-        <v>4.926971245376312</v>
+        <v>4.911417589600342</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.49914958414645</v>
+        <v>-5.516104116326486</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-8.300975198180662</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.23251667563031</v>
+        <v>-23.23192752200243</v>
       </c>
       <c r="F38" t="n">
-        <v>4.754467063133729</v>
+        <v>4.741479498714737</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.524365359419615</v>
+        <v>-5.537418385352816</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-8.364116644190233</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.11629630330431</v>
+        <v>-23.11356001201039</v>
       </c>
       <c r="F39" t="n">
-        <v>4.896413810543724</v>
+        <v>4.8801531704143</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.507698857902098</v>
+        <v>-5.524902143836126</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-8.453176427141125</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.40826456562376</v>
+        <v>-22.4084347655607</v>
       </c>
       <c r="F40" t="n">
-        <v>5.063550148621198</v>
+        <v>5.043257079216523</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.56801509709393</v>
+        <v>-5.579261385234973</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-8.562137811642399</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.91282564148716</v>
+        <v>-21.91008935019324</v>
       </c>
       <c r="F41" t="n">
-        <v>5.042497725651703</v>
+        <v>5.025949054859761</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.623094415149072</v>
+        <v>-5.632782719251948</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-8.687095682451444</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.08963400801079</v>
+        <v>-21.09301182214396</v>
       </c>
       <c r="F42" t="n">
-        <v>5.150771070152778</v>
+        <v>5.132101446300476</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.835111167367984</v>
+        <v>-5.848059454878451</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.818458759416931</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.58804170153859</v>
+        <v>-20.58931165491423</v>
       </c>
       <c r="F43" t="n">
-        <v>5.16451798813659</v>
+        <v>5.144277287943281</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.962224335658302</v>
+        <v>-5.969935702032078</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.955513859467512</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.96336865605131</v>
+        <v>-19.96787240822886</v>
       </c>
       <c r="F44" t="n">
-        <v>5.017098658138755</v>
+        <v>5.004530047410698</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.961190043733805</v>
+        <v>-5.968626471747906</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-9.089752890687064</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.42125567228396</v>
+        <v>-19.42935980774299</v>
       </c>
       <c r="F45" t="n">
-        <v>4.959518710240843</v>
+        <v>4.945850346074081</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.917553398362332</v>
+        <v>-5.929519763159671</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.219793884375731</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.76106320918708</v>
+        <v>-18.77636811120906</v>
       </c>
       <c r="F46" t="n">
-        <v>5.159411990028317</v>
+        <v>5.141920673431771</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.086902335620059</v>
+        <v>-6.094469686662577</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-9.339324863703386</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.40260904968346</v>
+        <v>-18.41238899990623</v>
       </c>
       <c r="F47" t="n">
-        <v>5.166115249083281</v>
+        <v>5.148885778543569</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.290251983357749</v>
+        <v>-6.296392273390518</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-9.446244992305287</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.78863241561788</v>
+        <v>-17.80614991682011</v>
       </c>
       <c r="F48" t="n">
-        <v>5.05862744275271</v>
+        <v>5.043414186850624</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.423426887863786</v>
+        <v>-6.427433132533354</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-9.54121739018003</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.26170650314693</v>
+        <v>-17.28076889608448</v>
       </c>
       <c r="F49" t="n">
-        <v>5.08153897272573</v>
+        <v>5.062869348873429</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.708380859213954</v>
+        <v>-6.703824737825033</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-9.620367148106785</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.66929289186167</v>
+        <v>-16.69080354543062</v>
       </c>
       <c r="F50" t="n">
-        <v>4.948023668345808</v>
+        <v>4.9279400757866</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.879379426629738</v>
+        <v>-6.870607583725782</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-9.688256263454912</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.92274359922076</v>
+        <v>-15.94702982099216</v>
       </c>
       <c r="F51" t="n">
-        <v>4.88675169104653</v>
+        <v>4.865856375711135</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.917949350801463</v>
+        <v>-6.911900706888586</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-9.741203187668098</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.44497928392049</v>
+        <v>-15.4705223667647</v>
       </c>
       <c r="F52" t="n">
-        <v>4.78845468131085</v>
+        <v>4.772324964209844</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.160026030344978</v>
+        <v>-7.145271005042352</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-9.781525692835855</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.85492228714674</v>
+        <v>-14.88049155459663</v>
       </c>
       <c r="F53" t="n">
-        <v>4.744831128242219</v>
+        <v>4.730089195242436</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.404066555314752</v>
+        <v>-7.386797807866516</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-9.809114325959259</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.17743489199594</v>
+        <v>-14.20464069730105</v>
       </c>
       <c r="F54" t="n">
-        <v>4.580915496663809</v>
+        <v>4.570389285179061</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.640867036813051</v>
+        <v>-7.618492291256541</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-9.824674015040532</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.62647151150758</v>
+        <v>-13.65624340816967</v>
       </c>
       <c r="F55" t="n">
-        <v>4.652032885700065</v>
+        <v>4.635667507147907</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.947266200217967</v>
+        <v>-7.921592194345342</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-9.833139186769976</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.33061165189026</v>
+        <v>-13.36287108609227</v>
       </c>
       <c r="F56" t="n">
-        <v>4.564550118111652</v>
+        <v>4.548446585616328</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.979237603757461</v>
+        <v>-7.957334181103254</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-9.832789594325934</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.01524426103876</v>
+        <v>-13.04446628098149</v>
       </c>
       <c r="F57" t="n">
-        <v>4.458528649699353</v>
+        <v>4.443498686037052</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.29704016293752</v>
+        <v>-8.267202804761226</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.830842232637911</v>
       </c>
       <c r="E58" t="n">
-        <v>-12.5765473774182</v>
+        <v>-12.60481365925349</v>
       </c>
       <c r="F58" t="n">
-        <v>4.37840375630799</v>
+        <v>4.361959823938782</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.721099851981027</v>
+        <v>-8.692362247243439</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.826998073271337</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.2506668673848</v>
+        <v>-12.27937828751671</v>
       </c>
       <c r="F59" t="n">
-        <v>4.354942349615617</v>
+        <v>4.336351279580366</v>
       </c>
       <c r="G59" t="n">
-        <v>-9.05168049873461</v>
+        <v>-9.024003370527202</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.825158007520988</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.9187638980442</v>
+        <v>-11.94988430189898</v>
       </c>
       <c r="F60" t="n">
-        <v>4.251539341771664</v>
+        <v>4.233367225427348</v>
       </c>
       <c r="G60" t="n">
-        <v>-9.161158335097124</v>
+        <v>-9.131818484428816</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.829128515394029</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.74569674677943</v>
+        <v>-11.78129471820608</v>
       </c>
       <c r="F61" t="n">
-        <v>4.13370861619613</v>
+        <v>4.115562684457498</v>
       </c>
       <c r="G61" t="n">
-        <v>-9.539565164131533</v>
+        <v>-9.504726546269699</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.838966330474031</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.64729499862101</v>
+        <v>-11.68208124727148</v>
       </c>
       <c r="F62" t="n">
-        <v>4.032086161538652</v>
+        <v>4.01098136935779</v>
       </c>
       <c r="G62" t="n">
-        <v>-9.739720289975841</v>
+        <v>-9.710747023787102</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.859246223992553</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.40197142797275</v>
+        <v>-11.43932376798019</v>
       </c>
       <c r="F63" t="n">
-        <v>4.110666163194692</v>
+        <v>4.087728448615988</v>
       </c>
       <c r="G63" t="n">
-        <v>-9.974779495196191</v>
+        <v>-9.937099847617704</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.885122533791293</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.33184905395246</v>
+        <v>-11.3666876718143</v>
       </c>
       <c r="F64" t="n">
-        <v>4.009357923805416</v>
+        <v>3.985608486450524</v>
       </c>
       <c r="G64" t="n">
-        <v>-10.1430548636209</v>
+        <v>-10.10347683213036</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.919429945528554</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.39378873869667</v>
+        <v>-11.42583869605322</v>
       </c>
       <c r="F65" t="n">
-        <v>4.02053875043225</v>
+        <v>3.99354242197261</v>
       </c>
       <c r="G65" t="n">
-        <v>-10.03588127255853</v>
+        <v>-9.996866210090182</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.956961104325959</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.23741427355509</v>
+        <v>-11.27015812296225</v>
       </c>
       <c r="F66" t="n">
-        <v>4.031038777311314</v>
+        <v>4.005116017684696</v>
       </c>
       <c r="G66" t="n">
-        <v>-10.22983064685586</v>
+        <v>-10.18955872331471</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.995270154964263</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.49689062357526</v>
+        <v>-11.52583770515832</v>
       </c>
       <c r="F67" t="n">
-        <v>3.734550487157585</v>
+        <v>3.710774865197011</v>
       </c>
       <c r="G67" t="n">
-        <v>-10.31840007558013</v>
+        <v>-10.2797646898942</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-10.03360448298212</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.49903776124131</v>
+        <v>-11.52886202711476</v>
       </c>
       <c r="F68" t="n">
-        <v>3.847537060681681</v>
+        <v>3.820357439982258</v>
       </c>
       <c r="G68" t="n">
-        <v>-10.11150241377234</v>
+        <v>-10.07382276619385</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-10.06659935577704</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.42581251144753</v>
+        <v>-11.45566296192667</v>
       </c>
       <c r="F69" t="n">
-        <v>3.812397319854488</v>
+        <v>3.7854795452119</v>
       </c>
       <c r="G69" t="n">
-        <v>-10.14655050847964</v>
+        <v>-10.10985278361428</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.09616948790475</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.63159732751378</v>
+        <v>-11.65890787124162</v>
       </c>
       <c r="F70" t="n">
-        <v>3.603915489402843</v>
+        <v>3.572755808639535</v>
       </c>
       <c r="G70" t="n">
-        <v>-10.21109556148935</v>
+        <v>-10.16735417769514</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.1158678141601</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.59026492744245</v>
+        <v>-11.61694704063389</v>
       </c>
       <c r="F71" t="n">
-        <v>3.510043678027667</v>
+        <v>3.483125903385078</v>
       </c>
       <c r="G71" t="n">
-        <v>-10.21312486842981</v>
+        <v>-10.16851939264805</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.12832354482912</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.74493739321461</v>
+        <v>-11.76858209214676</v>
       </c>
       <c r="F72" t="n">
-        <v>3.53350508472004</v>
+        <v>3.507503771276372</v>
       </c>
       <c r="G72" t="n">
-        <v>-10.35605353855294</v>
+        <v>-10.30682647986805</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.13053050071015</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.12076503858919</v>
+        <v>-12.14400387613326</v>
       </c>
       <c r="F73" t="n">
-        <v>3.626748465558813</v>
+        <v>3.601035182777663</v>
       </c>
       <c r="G73" t="n">
-        <v>-10.16134481069079</v>
+        <v>-10.11332224386734</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.1234236999855</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.41574771391612</v>
+        <v>-12.43742856742202</v>
       </c>
       <c r="F74" t="n">
-        <v>3.626669911741763</v>
+        <v>3.597133676530829</v>
       </c>
       <c r="G74" t="n">
-        <v>-10.08063076367155</v>
+        <v>-10.03301405823619</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.11131023249714</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.74097360880744</v>
+        <v>-12.76579661499535</v>
       </c>
       <c r="F75" t="n">
-        <v>3.568880486998384</v>
+        <v>3.538899113490831</v>
       </c>
       <c r="G75" t="n">
-        <v>-10.00205076201551</v>
+        <v>-9.955075579419393</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.09228332440681</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.96155272708484</v>
+        <v>-12.98540690286247</v>
       </c>
       <c r="F76" t="n">
-        <v>3.566366764852772</v>
+        <v>3.534133515256443</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.946054982761444</v>
+        <v>-9.896906477893603</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.07130169407717</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.4125170984681</v>
+        <v>-13.43486565941892</v>
       </c>
       <c r="F77" t="n">
-        <v>3.589095002586009</v>
+        <v>3.559401659740974</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.730647324106524</v>
+        <v>-9.681878496021096</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.04354240328219</v>
       </c>
       <c r="E78" t="n">
-        <v>-14.16414620461159</v>
+        <v>-14.18353590512019</v>
       </c>
       <c r="F78" t="n">
-        <v>3.561234582138816</v>
+        <v>3.529446470839105</v>
       </c>
       <c r="G78" t="n">
-        <v>-9.43790343256553</v>
+        <v>-9.391124634512042</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.01008283551068</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.76013401457264</v>
+        <v>-14.77949753047556</v>
       </c>
       <c r="F79" t="n">
-        <v>3.679248599954135</v>
+        <v>3.644684920451978</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.434577987643731</v>
+        <v>-9.391046080694991</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-9.966788139597275</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.13098658486738</v>
+        <v>-15.15777343648155</v>
       </c>
       <c r="F80" t="n">
-        <v>3.719546708100967</v>
+        <v>3.682574044875933</v>
       </c>
       <c r="G80" t="n">
-        <v>-9.060111941764683</v>
+        <v>-9.019957848949108</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.909122838450218</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.69697992901804</v>
+        <v>-15.72168510448037</v>
       </c>
       <c r="F81" t="n">
-        <v>3.698258623680321</v>
+        <v>3.666339589352193</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.864918798697389</v>
+        <v>-8.824790890487497</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.837069852053279</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.55147525858897</v>
+        <v>-16.57305137367214</v>
       </c>
       <c r="F82" t="n">
-        <v>3.586136142143779</v>
+        <v>3.553562492673564</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.637584052153658</v>
+        <v>-8.59847734356542</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.742424465130229</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.50011733789476</v>
+        <v>-17.52543785159066</v>
       </c>
       <c r="F83" t="n">
-        <v>3.692786041092479</v>
+        <v>3.652199902283129</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.448046783913989</v>
+        <v>-8.407146429836436</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.62551405167263</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.42584788722753</v>
+        <v>-18.45090655486659</v>
       </c>
       <c r="F84" t="n">
-        <v>3.602396782273202</v>
+        <v>3.568906671604067</v>
       </c>
       <c r="G84" t="n">
-        <v>-8.156088430543498</v>
+        <v>-8.115881968516556</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-9.479620715067036</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.44230809525346</v>
+        <v>-19.47074457702568</v>
       </c>
       <c r="F85" t="n">
-        <v>3.764112906974203</v>
+        <v>3.727611566651471</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.986320539594836</v>
+        <v>-7.948758722741923</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-9.302487288888575</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.62352184223966</v>
+        <v>-20.65072764754477</v>
       </c>
       <c r="F86" t="n">
-        <v>3.745076698642333</v>
+        <v>3.699934438444062</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.838717917357216</v>
+        <v>-7.80340797659308</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-9.092792254744893</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.81819447654717</v>
+        <v>-21.84644766607961</v>
       </c>
       <c r="F87" t="n">
-        <v>3.710277357689025</v>
+        <v>3.66563260499874</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.6829587904492</v>
+        <v>-7.648486757066936</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.847334623727825</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.23601232048905</v>
+        <v>-23.26645192459606</v>
       </c>
       <c r="F88" t="n">
-        <v>3.944812870795706</v>
+        <v>3.893019720753838</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.611252247785067</v>
+        <v>-7.584936719073197</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.572648404758516</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.72812898305773</v>
+        <v>-24.75623815725891</v>
       </c>
       <c r="F89" t="n">
-        <v>3.789381051458734</v>
+        <v>3.739394639209024</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.414186905411406</v>
+        <v>-7.386876361683566</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-8.268303291983496</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.34788250603039</v>
+        <v>-26.37600477253442</v>
       </c>
       <c r="F90" t="n">
-        <v>3.941435056662541</v>
+        <v>3.889903752677507</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.567772710047695</v>
+        <v>-7.546353702598631</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.944048693547903</v>
       </c>
       <c r="E91" t="n">
-        <v>-28.06779214574226</v>
+        <v>-28.09146302928011</v>
       </c>
       <c r="F91" t="n">
-        <v>4.071886762177499</v>
+        <v>4.013914045194336</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.308348729238893</v>
+        <v>-7.284350538130009</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.60566845507083</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.01214313306984</v>
+        <v>-30.03548670903664</v>
       </c>
       <c r="F92" t="n">
-        <v>3.970945107267791</v>
+        <v>3.913181867130096</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.48703247842277</v>
+        <v>-7.466804870532303</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.261028058335192</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.83597947273934</v>
+        <v>-31.86112978649829</v>
       </c>
       <c r="F93" t="n">
-        <v>3.899880087442902</v>
+        <v>3.835413588250243</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.338735964134539</v>
+        <v>-7.31561495731605</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.921090319023337</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.81287792493145</v>
+        <v>-33.8333542865759</v>
       </c>
       <c r="F94" t="n">
-        <v>4.145360765725266</v>
+        <v>4.080449128235988</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.250899704369399</v>
+        <v>-7.234481956605874</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.59131178041728</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.91705974535082</v>
+        <v>-35.93592575374575</v>
       </c>
       <c r="F95" t="n">
-        <v>3.896188058041536</v>
+        <v>3.828239006292977</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.063287004647465</v>
+        <v>-7.045638580416817</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-6.28659830611304</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.17252312510634</v>
+        <v>-38.18577253558216</v>
       </c>
       <c r="F96" t="n">
-        <v>3.754031833786074</v>
+        <v>3.678463061783631</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.132597655891562</v>
+        <v>-7.118837645604908</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-6.009450221548217</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.15011546934906</v>
+        <v>-40.15778755881431</v>
       </c>
       <c r="F97" t="n">
-        <v>3.563093689142341</v>
+        <v>3.492133407740186</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.792223966612368</v>
+        <v>-6.787641660617764</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.774554390976027</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.69813944840578</v>
+        <v>-42.70344183105669</v>
       </c>
       <c r="F98" t="n">
-        <v>3.530703331911911</v>
+        <v>3.458564743254</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.835873704286683</v>
+        <v>-6.836960365422546</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.582986497963096</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.83863931690811</v>
+        <v>-44.8414279774134</v>
       </c>
       <c r="F99" t="n">
-        <v>3.482314180608891</v>
+        <v>3.401691779709542</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.611903679573275</v>
+        <v>-6.620112553455037</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.449976767210633</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.12612646941449</v>
+        <v>-47.12480414682747</v>
       </c>
       <c r="F100" t="n">
-        <v>3.396847627658103</v>
+        <v>3.316146672941704</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.493889661757955</v>
+        <v>-6.499466982768531</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.371058818412703</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.45395100697622</v>
+        <v>-49.44701208647011</v>
       </c>
       <c r="F101" t="n">
-        <v>3.085722142927325</v>
+        <v>3.012117216351141</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.564928496977162</v>
+        <v>-6.574106201269212</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.373048163493016</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.85920342354392</v>
+        <v>-51.84702758190112</v>
       </c>
       <c r="F102" t="n">
-        <v>2.709266067016334</v>
+        <v>2.637415509020941</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.539542521767054</v>
+        <v>-6.551600532684284</v>
       </c>
     </row>
   </sheetData>
